--- a/excel/langues.xlsx
+++ b/excel/langues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS CODE\site-langue\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD9865-9127-45F2-9597-C0EB23769DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE41508-D2A1-488C-8F42-9167965E5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ED5E83E-2158-493F-AF0B-DA9204208407}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>TAG</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>Mezzanine</t>
+  </si>
+  <si>
+    <t>HORAIRE</t>
+  </si>
+  <si>
+    <t>13h10-14h40</t>
+  </si>
+  <si>
+    <t>14h50-16h20</t>
+  </si>
+  <si>
+    <t>16h30-18h00</t>
   </si>
 </sst>
 </file>
@@ -774,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772189F-CF17-427D-B788-A731F4C3F4A1}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +800,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,8 +813,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,8 +830,11 @@
       <c r="D2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -829,8 +847,11 @@
       <c r="D3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -843,8 +864,11 @@
       <c r="D4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -857,8 +881,11 @@
       <c r="D5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -871,8 +898,11 @@
       <c r="D6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -885,8 +915,11 @@
       <c r="D7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -899,8 +932,11 @@
       <c r="D8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -913,8 +949,11 @@
       <c r="D9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -927,8 +966,11 @@
       <c r="D10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -941,8 +983,11 @@
       <c r="D11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -955,8 +1000,11 @@
       <c r="D12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -969,8 +1017,11 @@
       <c r="D13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -983,8 +1034,11 @@
       <c r="D14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -997,8 +1051,11 @@
       <c r="D15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -1011,8 +1068,11 @@
       <c r="D16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1025,8 +1085,11 @@
       <c r="D17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1039,8 +1102,11 @@
       <c r="D18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1053,8 +1119,11 @@
       <c r="D19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1067,8 +1136,11 @@
       <c r="D20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1081,8 +1153,11 @@
       <c r="D21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1095,8 +1170,11 @@
       <c r="D22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1109,8 +1187,11 @@
       <c r="D23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1123,8 +1204,11 @@
       <c r="D24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1137,8 +1221,11 @@
       <c r="D25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1151,8 +1238,11 @@
       <c r="D26" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1165,8 +1255,11 @@
       <c r="D27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1179,8 +1272,11 @@
       <c r="D28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1193,8 +1289,11 @@
       <c r="D29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1207,8 +1306,11 @@
       <c r="D30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -1221,8 +1323,11 @@
       <c r="D31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -1235,8 +1340,11 @@
       <c r="D32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -1249,8 +1357,11 @@
       <c r="D33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1263,8 +1374,11 @@
       <c r="D34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1277,8 +1391,11 @@
       <c r="D35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1291,8 +1408,11 @@
       <c r="D36" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1305,8 +1425,11 @@
       <c r="D37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1319,8 +1442,11 @@
       <c r="D38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1333,8 +1459,11 @@
       <c r="D39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1347,8 +1476,11 @@
       <c r="D40" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1361,8 +1493,11 @@
       <c r="D41" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -1375,8 +1510,11 @@
       <c r="D42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -1389,8 +1527,11 @@
       <c r="D43" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -1403,8 +1544,11 @@
       <c r="D44" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -1417,8 +1561,11 @@
       <c r="D45" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -1431,8 +1578,11 @@
       <c r="D46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1445,8 +1595,11 @@
       <c r="D47" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -1458,6 +1611,9 @@
       </c>
       <c r="D48" t="s">
         <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/excel/langues.xlsx
+++ b/excel/langues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS CODE\site-langue\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pltel\Documents\site langue\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE41508-D2A1-488C-8F42-9167965E5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F76AC3-AAD5-4080-AC1E-FF77D7C68DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ED5E83E-2158-493F-AF0B-DA9204208407}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1ED5E83E-2158-493F-AF0B-DA9204208407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -788,19 +788,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772189F-CF17-427D-B788-A731F4C3F4A1}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +818,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,7 +835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -851,7 +852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -868,7 +869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -885,7 +886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -902,7 +903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -919,7 +920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -936,7 +937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -953,7 +954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -970,7 +971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -987,7 +988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>105</v>
       </c>
